--- a/biology/Botanique/Dieffenbachia/Dieffenbachia.xlsx
+++ b/biology/Botanique/Dieffenbachia/Dieffenbachia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dieffenbachia est un genre de plantes de la famille des Araceae. Ce sont des plantes aux feuilles tachetées, appelées aussi cannes des muets dans le langage courant. Bien qu'elles soient toxiques dans toutes les parties de la plante, notamment par le latex qui s'écoule quand on la coupe, certaines espèces sont couramment cultivées comme plantes d'appartement. Leur attrait tient essentiellement dans leur feuillage panaché et une bonne résistance dans des locaux peu lumineux et secs. Ces dieffenbachias sont déclinés en de nombreux cultivars par sélection horticole.
 </t>
@@ -513,10 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toxicité
-Les cellules de Dieffenbachia contiennent des cristaux en forme d'aiguilles constituées d'oxalate de calcium. Si une feuille est mâchée, ces cristaux peuvent causer une sensation passagère de brûlure et de l'érythème. Dans de rares cas, les tissus exposés présentent un œdème. La mastication et l'ingestion provoquent généralement de légers symptômes[3]. En ce qui concerne les enfants et les animaux de compagnie, le contact avec la plante (habituellement la mâcher) peut provoquer des symptômes déplaisants tels qu'irritation de la bouche, hypersialorrhée et œdème[4]. Cependant, ces effets sont rarement dangereux pour la vie. Dans la plupart des cas, les symptômes sont légers et peuvent être traités avec un analgésique[5], un antihistaminique[6] ou du charbon de qualité médicale[7]. Le lavage intestinal est « parfois »[7] approprié[5].
-Le médecin et pharmacienne Jennifer S. Boyle et le médecin Christopher P. Holstege observent que « dans une étude à long terme sur 188 patients ayant été en contact avec l'oxalate de calcium de la plante, tous les cas furent mineurs et ont guéri sans traitement ou avec un traitement léger[trad 1],[5] ». Ils ajoutent 
-que « en ce qui concerne les patients exposés aux plantes toxiques, 70 % étaient des enfants de moins de 5 ans[trad 2],[5] ».
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cellules de Dieffenbachia contiennent des cristaux en forme d'aiguilles constituées d'oxalate de calcium. Si une feuille est mâchée, ces cristaux peuvent causer une sensation passagère de brûlure et de l'érythème. Dans de rares cas, les tissus exposés présentent un œdème. La mastication et l'ingestion provoquent généralement de légers symptômes. En ce qui concerne les enfants et les animaux de compagnie, le contact avec la plante (habituellement la mâcher) peut provoquer des symptômes déplaisants tels qu'irritation de la bouche, hypersialorrhée et œdème. Cependant, ces effets sont rarement dangereux pour la vie. Dans la plupart des cas, les symptômes sont légers et peuvent être traités avec un analgésique, un antihistaminique ou du charbon de qualité médicale. Le lavage intestinal est « parfois » approprié.
+Le médecin et pharmacienne Jennifer S. Boyle et le médecin Christopher P. Holstege observent que « dans une étude à long terme sur 188 patients ayant été en contact avec l'oxalate de calcium de la plante, tous les cas furent mineurs et ont guéri sans traitement ou avec un traitement léger[trad 1], ». Ils ajoutent 
+que « en ce qui concerne les patients exposés aux plantes toxiques, 70 % étaient des enfants de moins de 5 ans[trad 2], ».
 </t>
         </is>
       </c>
@@ -545,11 +562,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit en 1829 par le botaniste autrichien Heinrich Wilhelm Schott (1794-1865), directeur du jardin botanique au château de Schönbrunn, à Vienne. Le genre est un hommage à son jardinier en chef, Joseph Dieffenbach (de) (1796–1863)[8],[9].
-En classification classique de Cronquist (1981)[10], Dieffenbachia fait partie de la famille des Araceae.
-En classification phylogénétique APG IV (2016)[11], ce genre fait partie des Araceae de la sous-famille des Aroideae, Tribu des Dieffenbachieae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1829 par le botaniste autrichien Heinrich Wilhelm Schott (1794-1865), directeur du jardin botanique au château de Schönbrunn, à Vienne. Le genre est un hommage à son jardinier en chef, Joseph Dieffenbach (de) (1796–1863),.
+En classification classique de Cronquist (1981), Dieffenbachia fait partie de la famille des Araceae.
+En classification phylogénétique APG IV (2016), ce genre fait partie des Araceae de la sous-famille des Aroideae, Tribu des Dieffenbachieae.
 </t>
         </is>
       </c>
@@ -578,9 +597,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (26 mars 2017)[12] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (26 mars 2017) :
 Dieffenbachia aglaonematifolia Engl.
 Dieffenbachia antioquensis Linden &amp; André
 Dieffenbachia aurantiaca Engl.
@@ -633,7 +654,7 @@
 Dieffenbachia weirii Berk.
 Dieffenbachia wendlandii Schott
 Dieffenbachia williamsii Croat
-Selon World Checklist of Selected Plant Families (WCSP)  (26 mars 2017)[13] :
+Selon World Checklist of Selected Plant Families (WCSP)  (26 mars 2017) :
 Dieffenbachia aglaonematifolia Engl. (1915)
 Dieffenbachia antioquensis Linden ex Rafarin (1874)
 Dieffenbachia aurantiaca Engl. (1898)
@@ -692,7 +713,7 @@
 Dieffenbachia williamsii Croat (2005)
 Dieffenbachia wurdackii Croat (2005)
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (26 mars 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 mars 2017) (Attention liste brute contenant possiblement des synonymes) :
 Dieffenbachia acebeyae Croat
 Dieffenbachia acevedoi Croat
 Dieffenbachia aglaonematifolia Engl.
@@ -934,7 +955,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ces plantes sont le plus souvent utilisées comme décoration d'intérieur. On peut les trouver dans plusieurs magasins de vente de plantes.
